--- a/CajaNegraMM_IsmaelRaqi.xlsx
+++ b/CajaNegraMM_IsmaelRaqi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="7830"/>
@@ -10,7 +10,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="115">
   <si>
     <t>Clases de equivalencia válidas</t>
   </si>
@@ -420,6 +419,12 @@
   </si>
   <si>
     <t>Azul-Verde-Blanco-Rojo-Morado | Verde-Azul-Amarillo-" "-Morado</t>
+  </si>
+  <si>
+    <t>Pista:</t>
+  </si>
+  <si>
+    <t>Nota: Se repetirá la pregunta al usuario hasta que dé la pista correcta</t>
   </si>
 </sst>
 </file>
@@ -564,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,14 +594,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,7 +616,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,16 +929,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="122.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
@@ -939,25 +947,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="16"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -967,11 +975,11 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="17"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1209,28 +1217,35 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
@@ -1239,66 +1254,68 @@
         <v>29</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="G22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>14</v>
@@ -1306,13 +1323,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>14</v>
@@ -1326,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>14</v>
@@ -1340,7 +1357,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>14</v>
@@ -1351,16 +1368,13 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,10 +1385,13 @@
         <v>41</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1385,7 +1402,7 @@
         <v>41</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>109</v>
@@ -1399,7 +1416,7 @@
         <v>41</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>109</v>
@@ -1410,13 +1427,13 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,7 +1444,7 @@
         <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>14</v>
@@ -1441,58 +1458,64 @@
         <v>46</v>
       </c>
       <c r="F33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="G35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E36" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>109</v>
@@ -1503,7 +1526,7 @@
         <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>109</v>
@@ -1514,42 +1537,53 @@
         <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
         <v>1</v>
       </c>
@@ -1559,11 +1593,11 @@
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="16" t="s">
+      <c r="E44" s="15"/>
+      <c r="F44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="16"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -1627,7 +1661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>59</v>
@@ -1641,7 +1675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -1657,7 +1691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>15</v>
       </c>
@@ -1675,7 +1709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
@@ -1693,7 +1727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
@@ -1711,72 +1745,78 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1784,41 +1824,41 @@
         <v>32</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="G61" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1826,38 +1866,40 @@
         <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8" t="s">
+      <c r="G63" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F64" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>109</v>
+      <c r="G64" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,7 +1910,7 @@
         <v>41</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>109</v>
@@ -1882,7 +1924,7 @@
         <v>41</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>109</v>
@@ -1896,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>109</v>
@@ -1907,13 +1949,13 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -1924,7 +1966,7 @@
         <v>46</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>14</v>
@@ -1938,7 +1980,7 @@
         <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>14</v>
@@ -1949,21 +1991,24 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>109</v>
+        <v>83</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>109</v>
@@ -1974,7 +2019,7 @@
         <v>50</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>109</v>
@@ -1985,7 +2030,7 @@
         <v>50</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>109</v>
@@ -1996,7 +2041,7 @@
         <v>50</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>109</v>
@@ -2007,42 +2052,53 @@
         <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G77" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14" t="s">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F80" s="15" t="s">
+      <c r="F80" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G80" s="15"/>
+      <c r="G80" s="16"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="3" t="s">
         <v>1</v>
       </c>
@@ -2052,11 +2108,11 @@
       <c r="D81" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="16" t="s">
+      <c r="E81" s="15"/>
+      <c r="F81" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="16"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
@@ -2195,15 +2251,15 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -2443,17 +2499,9 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:E44"/>
@@ -2463,6 +2511,14 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
